--- a/5. FF预研/过程文档/主从站下装数据结构.xlsx
+++ b/5. FF预研/过程文档/主从站下装数据结构.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>typedef struct</t>
   </si>
@@ -117,204 +117,268 @@
   </si>
   <si>
     <t>} VCR_STATIC_ENTRY;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>fas_ar_type_and_role;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>UINT32</t>
+  </si>
+  <si>
+    <t>fas_dll_local_addr;</t>
+  </si>
+  <si>
+    <t>fas_dll_configured_remote_addr;</t>
+  </si>
+  <si>
+    <t>UINT16</t>
+  </si>
+  <si>
+    <t>fas_dll_max_cnf_delay_on_data;</t>
+  </si>
+  <si>
+    <t>fas_dll_max_dlsdu_size;</t>
+  </si>
+  <si>
+    <t>fas_dll_resid_act_supp;</t>
+  </si>
+  <si>
+    <t>/*QUB VCR only.*/</t>
+  </si>
+  <si>
+    <t>fas_dll_timeliness_class;</t>
+  </si>
+  <si>
+    <t>fas_dll_pub_timewin_size;</t>
+  </si>
+  <si>
+    <t>/*BNU VCR only, Constraint: TimelinessClass is not NONE.*/</t>
+  </si>
+  <si>
+    <t>fas_dll_pub_syn_dlcep;</t>
+  </si>
+  <si>
+    <t>/*BNU VCR only, Constraint: TimelinessClass is UPDATE or SYN.*/</t>
+  </si>
+  <si>
+    <t>fas_dll_sub_timewin_size;</t>
+  </si>
+  <si>
+    <t>fas_dll_sub_syn_dlcep;</t>
+  </si>
+  <si>
+    <t>fms_vfd_id;</t>
+  </si>
+  <si>
+    <t>UINT8</t>
+  </si>
+  <si>
+    <t>fms_max_scc;</t>
+  </si>
+  <si>
+    <t>fms_max_rcc;</t>
+  </si>
+  <si>
+    <t>fms_feature_supp[FEAT_SUPP_LEN];</t>
+  </si>
+  <si>
+    <t>/*FMS feature support.*/</t>
+  </si>
+  <si>
+    <t>/*QUB VCR only, FmsMaxOutstandingServicesCalling.*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*QUB VCR only, FmaMaxOutstandingServicesCalled.*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOL fas_dll_resid_act_supp;     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// QUB VCR only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT8 fas_dll_timeliness_class;  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// BNU VCR only, Pub/Sub Timeliness Class, Dup PDU detection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT16 fas_dll_pub_timewin_size; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// BNU VCR only, Constraint: TimelinessClass is not NONE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT32 fas_dll_pub_syn_dlcep;    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// BNU VCR only, Constraint: TimelinessClass is UPDATE or SYN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT16 fas_dll_sub_timewin_size; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT32 fas_dll_sub_syn_dlcep;    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//BNU VCR only, Constraint: TimelinessClass is UPDATE or SYN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT8 fms_max_scc; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// QUB VCR only, FmsMaxOutstandingServicesCalling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT8 fms_max_rcc; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// QUB VCR only, FmaMaxOutstandingServicesCalled.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UINT8 fms_feature_supp[FEAT_SUPP_LEN]; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// FMS feature support.</t>
+  </si>
+  <si>
+    <t>本地地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sdap;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fms_bypass:1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINT32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar_type:3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar_role:4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority:2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  UINT32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlpdu_auth:2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlcep_delivery:3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>las_scheduled:1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*Scheduled, Delivery, Authentication, Priority.*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentication值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduled值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_max_cnf_delay_on_conn;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*BNU VCR only, Pub/Sub Timeliness Class, Dup PDU detection.*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher_timeliness:3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Publisher Timeliness Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscriber_timeliness:3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subscriber Timeliness Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duppdu_supported:1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dup PDU Detection  Supported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>} VCR_STATIC_ENTRY;</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct</t>
-  </si>
-  <si>
-    <t>UINT32 fms_bypass:1;</t>
-  </si>
-  <si>
-    <t>UINT32 ar_type:3;</t>
-  </si>
-  <si>
-    <t>UINT32 ar_role:4;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>fas_ar_type_and_role;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>UINT32</t>
-  </si>
-  <si>
-    <t>fas_dll_local_addr;</t>
-  </si>
-  <si>
-    <t>fas_dll_configured_remote_addr;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>UINT32 priority:2;</t>
-  </si>
-  <si>
-    <t>UINT32 dlpdu_auth:2;</t>
-  </si>
-  <si>
-    <t>UINT32 dlcep_delivery:3;</t>
-  </si>
-  <si>
-    <t>UINT32 las_scheduled:1;</t>
-  </si>
-  <si>
-    <t>fas_dll_sdap;</t>
-  </si>
-  <si>
-    <t>UINT16</t>
-  </si>
-  <si>
-    <t>fas_dll_max_cnf_delay_on_conn;</t>
-  </si>
-  <si>
-    <t>fas_dll_max_cnf_delay_on_data;</t>
-  </si>
-  <si>
-    <t>fas_dll_max_dlsdu_size;</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>fas_dll_resid_act_supp;</t>
-  </si>
-  <si>
-    <t>/*QUB VCR only.*/</t>
-  </si>
-  <si>
-    <t>subscriber_timeliness:3;</t>
-  </si>
-  <si>
-    <t>duppdu_supported:1;</t>
-  </si>
-  <si>
-    <t>publisher_timeliness:3;</t>
-  </si>
-  <si>
-    <t>fas_dll_timeliness_class;</t>
-  </si>
-  <si>
-    <t>/*BNU VCR only, Pub/Sub Timeliness Class, Dup PDU detection.*/</t>
-  </si>
-  <si>
-    <t>fas_dll_pub_timewin_size;</t>
-  </si>
-  <si>
-    <t>/*BNU VCR only, Constraint: TimelinessClass is not NONE.*/</t>
-  </si>
-  <si>
-    <t>fas_dll_pub_syn_dlcep;</t>
-  </si>
-  <si>
-    <t>/*BNU VCR only, Constraint: TimelinessClass is UPDATE or SYN.*/</t>
-  </si>
-  <si>
-    <t>fas_dll_sub_timewin_size;</t>
-  </si>
-  <si>
-    <t>fas_dll_sub_syn_dlcep;</t>
-  </si>
-  <si>
-    <t>fms_vfd_id;</t>
-  </si>
-  <si>
-    <t>UINT8</t>
-  </si>
-  <si>
-    <t>fms_max_scc;</t>
-  </si>
-  <si>
-    <t>fms_max_rcc;</t>
-  </si>
-  <si>
-    <t>fms_feature_supp[FEAT_SUPP_LEN];</t>
-  </si>
-  <si>
-    <t>/*FMS feature support.*/</t>
-  </si>
-  <si>
-    <t>/*Scheduled, Delivery, Authentication, Priority.*/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/*QUB VCR only, FmsMaxOutstandingServicesCalling.*/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/*QUB VCR only, FmaMaxOutstandingServicesCalled.*/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOL fas_dll_resid_act_supp;     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// QUB VCR only.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UINT8 fas_dll_timeliness_class;  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// BNU VCR only, Pub/Sub Timeliness Class, Dup PDU detection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UINT16 fas_dll_pub_timewin_size; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// BNU VCR only, Constraint: TimelinessClass is not NONE.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UINT32 fas_dll_pub_syn_dlcep;    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// BNU VCR only, Constraint: TimelinessClass is UPDATE or SYN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UINT16 fas_dll_sub_timewin_size; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UINT32 fas_dll_sub_syn_dlcep;    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//BNU VCR only, Constraint: TimelinessClass is UPDATE or SYN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UINT8 fms_max_scc; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// QUB VCR only, FmsMaxOutstandingServicesCalling.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UINT8 fms_max_rcc; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// QUB VCR only, FmaMaxOutstandingServicesCalled.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UINT8 fms_feature_supp[FEAT_SUPP_LEN]; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// FMS feature support.</t>
   </si>
 </sst>
 </file>
@@ -364,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -374,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,50 +942,50 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -928,31 +995,31 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -966,179 +1033,221 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
     <col min="5" max="5" width="53.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>37</v>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>43</v>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>43</v>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>47</v>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -1147,133 +1256,142 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
         <v>43</v>
       </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>34</v>
+      <c r="C37" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>34</v>
+      <c r="C38" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>62</v>
+      <c r="C39" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>62</v>
+      <c r="C40" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>62</v>
+      <c r="C41" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
